--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d124956-Reviews-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hotel-Figueroa-Downtown-Los-Angeles.h8805682.Hotel-Information?chkin=6%2F17%2F2018&amp;chkout=6%2F18%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528496369062&amp;cancellable=false&amp;regionId=2011&amp;vip=false&amp;c=fdb0f43c-055f-4a0e-b8d4-e7b43698ab71&amp;mctc=9&amp;exp_dp=209&amp;exp_ts=1528496369545&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,257 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591279393-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>124956</t>
+  </si>
+  <si>
+    <t>591279393</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Great stay at this beautiful hotel!</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at this newly remodeled beauty. The grounds and rooms are all lovely. I found the room to be very comfortable. The restaurants and bars were great as well. The staff was all very friendly and helpful as well. Highly recommend! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at this newly remodeled beauty. The grounds and rooms are all lovely. I found the room to be very comfortable. The restaurants and bars were great as well. The staff was all very friendly and helpful as well. Highly recommend! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591011148-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591011148</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>BET wke Live</t>
+  </si>
+  <si>
+    <t>Friendly staff very accommodating to all your needs. Very nice location to staples center and Microsoft theater. We were able to walk to the concerts, Bet awards, basketball game, and fan fest activities. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Friendly staff very accommodating to all your needs. Very nice location to staples center and Microsoft theater. We were able to walk to the concerts, Bet awards, basketball game, and fan fest activities. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r590607226-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>590607226</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>A Unique and Historic Modern Art Deco Hotel With A Spanish Flair in the Heart of Downtown LA</t>
+  </si>
+  <si>
+    <t>If you enjoy staying at a unique hotel the immerses you in the culture of your destination then Hotel Figueroa will check all your boxes. The hotel is incredibly beautiful featuring art deco decor while still maintaining its historic Spanish style. The rooms feature captivating artwork and trendy mid-century modern furnishings. There are also desks with a variety of books on artists and LA life. I especially apreciate the espresso machines in the room, which I prefer over coffee. The biggest delight was the complimentary basket of goodies in my room and homemade cookies to nosh on! MoreShow less</t>
+  </si>
+  <si>
+    <t>If you enjoy staying at a unique hotel the immerses you in the culture of your destination then Hotel Figueroa will check all your boxes. The hotel is incredibly beautiful featuring art deco decor while still maintaining its historic Spanish style. The rooms feature captivating artwork and trendy mid-century modern furnishings. There are also desks with a variety of books on artists and LA life. I especially apreciate the espresso machines in the room, which I prefer over coffee. The biggest delight was the complimentary basket of goodies in my room and homemade cookies to nosh on! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588591841-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588591841</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect Location</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown...My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown LA convention, we will be rebooking here.  Why pay more money to stay at the Ritz-Carlton, when great service can be found right around the corner??MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown...My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown LA convention, we will be rebooking here.  Why pay more money to stay at the Ritz-Carlton, when great service can be found right around the corner??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588153999-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588153999</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Very expensive average hotel</t>
+  </si>
+  <si>
+    <t>If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. 
+First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the...If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the bedside, keep some water and a cooking or small chocolate and lower the curtains. At this place, the only thing they did was check if bathroom and room trash cans were empty. Your slippers/shoes can continue to lie anywhere in the room, no lowering the blinds, no water, no chocolate/cookie. Another drawback is their expensive parking $45/night while right across the streets there are bunch of garages for $8/night-$10/night.The worst part -  we are travel bloggers invited by the hotel to stay at their hotel and review their service. We were told by their marketing team that we would be reimbursed for our stay and ever since our stay, the marketing department has gone cold and stopped responding to our emails/messages for reimbursement. Let me say that at the cost of our own money (~1500/3 nights....which I highly doubt would be refunded after this review), this hotel is sub par other hotels in the area and definitely would not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. 
+First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the...If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the bedside, keep some water and a cooking or small chocolate and lower the curtains. At this place, the only thing they did was check if bathroom and room trash cans were empty. Your slippers/shoes can continue to lie anywhere in the room, no lowering the blinds, no water, no chocolate/cookie. Another drawback is their expensive parking $45/night while right across the streets there are bunch of garages for $8/night-$10/night.The worst part -  we are travel bloggers invited by the hotel to stay at their hotel and review their service. We were told by their marketing team that we would be reimbursed for our stay and ever since our stay, the marketing department has gone cold and stopped responding to our emails/messages for reimbursement. Let me say that at the cost of our own money (~1500/3 nights....which I highly doubt would be refunded after this review), this hotel is sub par other hotels in the area and definitely would not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r587900415-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587900415</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Great location, nice amenities but VERY expensive</t>
+  </si>
+  <si>
+    <t>THE GOOD:Location, location, location.Excellent valet parking, and friendly, helpful, cooperative staff.Good restaurant onsite.Comfortable bed, comfortable soft pillows.Quiet room.Free fast wifi.Very nice amenities: free snack basket, water.THE BAD:&gt; VERY EXPENSIVE: $700+/night&gt; Very expensive valet parking: $45/night.&gt; Automatic light switch in bathroom turns on bright light every time you walk in, whether you want the light or not, blasting you in the face in the middle of the night and waking up your companion every time. Let ME turn on the light when I want it, dammit!&gt; A/C thermostat that does not stay put where you set it but reverts to some preset temperature after a little while. VERY annoying.&gt; No work desk. Just a table with an easy chair, not suited to work.&gt; Water pressure not quite high enough.SUMMARYA nice place but I'll stay here again only if I really have to, because the value received for $$$$ paid is just not there.MoreShow less</t>
+  </si>
+  <si>
+    <t>THE GOOD:Location, location, location.Excellent valet parking, and friendly, helpful, cooperative staff.Good restaurant onsite.Comfortable bed, comfortable soft pillows.Quiet room.Free fast wifi.Very nice amenities: free snack basket, water.THE BAD:&gt; VERY EXPENSIVE: $700+/night&gt; Very expensive valet parking: $45/night.&gt; Automatic light switch in bathroom turns on bright light every time you walk in, whether you want the light or not, blasting you in the face in the middle of the night and waking up your companion every time. Let ME turn on the light when I want it, dammit!&gt; A/C thermostat that does not stay put where you set it but reverts to some preset temperature after a little while. VERY annoying.&gt; No work desk. Just a table with an easy chair, not suited to work.&gt; Water pressure not quite high enough.SUMMARYA nice place but I'll stay here again only if I really have to, because the value received for $$$$ paid is just not there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586726569-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586726569</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Great staff and room</t>
+  </si>
+  <si>
+    <t>Walking to the hotel, the hotel did not look so nice so I was a bit concerned, but don't let the outside fool you! Walking inside, I was amazingly surprised! The interior decor is modern and fabulous. We were greeted by upbeat and very accommodating concierge. The room we stayed in was lovely. My only complaint was that it took a long time for the hot water to come through, but that was minor. I will be coming back here if I come by downtown LA again! Thank you Hotel Figueroa! :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586259622-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586259622</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Lovely stay at the Hotel Figuerroa</t>
+  </si>
+  <si>
+    <t>Loved this property. It is unique, the decor is so fun and different. We loved our room, the employees were so helpful and kind. You are right next to LA Live and in the heart of the new downtown LA scene. We stayed four nights and plan to return later this year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586201971-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586201971</t>
+  </si>
+  <si>
+    <t>Charming Hotel...Exceptional Staff</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay...  I would book a larger room next time, but our room was quiet and cozy and the bed was so comfy.  We loved the swanky restaurant and bars and the vibe throughout.  Entire staff was so friendly and welcoming... absolutely top notch. Cocktails at Veranda and breakfast at Breva were lovely.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r582285445-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582285445</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>I new gem in DTLA</t>
+  </si>
+  <si>
+    <t>I had the pleasure to stay at the Hotel Figueroa a few weekends ago and absolutely loved it!  Great location / good vibe / super comfortable rooms / AMAZING staff....its the total package.  I also had the opportunity to have dinner at Veranda (out by the pool).  WOW....it might have been the best meal I've had so far in 2018. Not to mention it was extremely reasonable for the party of 4 that we had.  I can recommend this property without hesitation.  You won't be disappointed when you visit.  Oh...and its a block from LA Live (where Staples Center is).  World class location....</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r580277852-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580277852</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, accommodating staff!</t>
+  </si>
+  <si>
+    <t>The hotel was absolutely gorgeous, each restaurant had very different types of meals but all were delightful. The staff were warm and accommodating, will stay again when I am back in LA. The pool was really nice, and the artist in residency hallway let me get a good feel of LA.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>The hotel was absolutely gorgeous, each restaurant had very different types of meals but all were delightful. The staff were warm and accommodating, will stay again when I am back in LA. The pool was really nice, and the artist in residency hallway let me get a good feel of LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r579285497-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579285497</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel, Even Better Staff</t>
+  </si>
+  <si>
+    <t>In addition to the central location, beautiful decor, delicious food, and comfortable rooms, I cannot say enough good about the incredible staff at Hotel Figueroa. Our every need was tended to by the personable staff. I would recommend to anyone, particularly for business travel and events.MoreShow less</t>
+  </si>
+  <si>
+    <t>In addition to the central location, beautiful decor, delicious food, and comfortable rooms, I cannot say enough good about the incredible staff at Hotel Figueroa. Our every need was tended to by the personable staff. I would recommend to anyone, particularly for business travel and events.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +899,756 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Had a wonderful stay at this newly remodeled beauty. The grounds and rooms are all lovely. I found the room to be very comfortable. The restaurants and bars were great as well. The staff was all very friendly and helpful as well. Highly recommend! More</t>
   </si>
   <si>
+    <t>Tiffany T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591011148-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Friendly staff very accommodating to all your needs. Very nice location to staples center and Microsoft theater. We were able to walk to the concerts, Bet awards, basketball game, and fan fest activities. Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>CuisineandTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r590607226-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>If you enjoy staying at a unique hotel the immerses you in the culture of your destination then Hotel Figueroa will check all your boxes. The hotel is incredibly beautiful featuring art deco decor while still maintaining its historic Spanish style. The rooms feature captivating artwork and trendy mid-century modern furnishings. There are also desks with a variety of books on artists and LA life. I especially apreciate the espresso machines in the room, which I prefer over coffee. The biggest delight was the complimentary basket of goodies in my room and homemade cookies to nosh on! More</t>
   </si>
   <si>
+    <t>Bamit422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588591841-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
   </si>
   <si>
     <t>My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown...My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown LA convention, we will be rebooking here.  Why pay more money to stay at the Ritz-Carlton, when great service can be found right around the corner??More</t>
+  </si>
+  <si>
+    <t>Jatin G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588153999-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -278,6 +293,9 @@
 First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the...If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the bedside, keep some water and a cooking or small chocolate and lower the curtains. At this place, the only thing they did was check if bathroom and room trash cans were empty. Your slippers/shoes can continue to lie anywhere in the room, no lowering the blinds, no water, no chocolate/cookie. Another drawback is their expensive parking $45/night while right across the streets there are bunch of garages for $8/night-$10/night.The worst part -  we are travel bloggers invited by the hotel to stay at their hotel and review their service. We were told by their marketing team that we would be reimbursed for our stay and ever since our stay, the marketing department has gone cold and stopped responding to our emails/messages for reimbursement. Let me say that at the cost of our own money (~1500/3 nights....which I highly doubt would be refunded after this review), this hotel is sub par other hotels in the area and definitely would not recommend it.More</t>
   </si>
   <si>
+    <t>BandBVoyager</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r587900415-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t>THE GOOD:Location, location, location.Excellent valet parking, and friendly, helpful, cooperative staff.Good restaurant onsite.Comfortable bed, comfortable soft pillows.Quiet room.Free fast wifi.Very nice amenities: free snack basket, water.THE BAD:&gt; VERY EXPENSIVE: $700+/night&gt; Very expensive valet parking: $45/night.&gt; Automatic light switch in bathroom turns on bright light every time you walk in, whether you want the light or not, blasting you in the face in the middle of the night and waking up your companion every time. Let ME turn on the light when I want it, dammit!&gt; A/C thermostat that does not stay put where you set it but reverts to some preset temperature after a little while. VERY annoying.&gt; No work desk. Just a table with an easy chair, not suited to work.&gt; Water pressure not quite high enough.SUMMARYA nice place but I'll stay here again only if I really have to, because the value received for $$$$ paid is just not there.More</t>
   </si>
   <si>
+    <t>Courtni P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586726569-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>Walking to the hotel, the hotel did not look so nice so I was a bit concerned, but don't let the outside fool you! Walking inside, I was amazingly surprised! The interior decor is modern and fabulous. We were greeted by upbeat and very accommodating concierge. The room we stayed in was lovely. My only complaint was that it took a long time for the hot water to come through, but that was minor. I will be coming back here if I come by downtown LA again! Thank you Hotel Figueroa! :)</t>
   </si>
   <si>
+    <t>heather s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586259622-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -326,6 +350,9 @@
     <t>Loved this property. It is unique, the decor is so fun and different. We loved our room, the employees were so helpful and kind. You are right next to LA Live and in the heart of the new downtown LA scene. We stayed four nights and plan to return later this year.</t>
   </si>
   <si>
+    <t>SaguaroSophie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586201971-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t>We really enjoyed our stay...  I would book a larger room next time, but our room was quiet and cozy and the bed was so comfy.  We loved the swanky restaurant and bars and the vibe throughout.  Entire staff was so friendly and welcoming... absolutely top notch. Cocktails at Veranda and breakfast at Breva were lovely.</t>
   </si>
   <si>
+    <t>Steven_theHB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r582285445-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>Marcy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r580277852-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
   </si>
   <si>
     <t>The hotel was absolutely gorgeous, each restaurant had very different types of meals but all were delightful. The staff were warm and accommodating, will stay again when I am back in LA. The pool was really nice, and the artist in residency hallway let me get a good feel of LA.More</t>
+  </si>
+  <si>
+    <t>Danielle M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r579285497-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -903,43 +939,47 @@
       <c r="A2" t="n">
         <v>17412</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -951,56 +991,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17412</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>51418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1012,47 +1056,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17412</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>147860</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1069,56 +1117,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17412</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>147861</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1136,56 +1188,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17412</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>147862</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1203,50 +1259,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17412</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>147863</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1266,50 +1326,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17412</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>147864</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1327,50 +1391,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17412</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>147865</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1390,50 +1458,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17412</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>147866</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1451,50 +1523,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17412</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>147867</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1514,50 +1590,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17412</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>33384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1575,56 +1655,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17412</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>6673</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1640,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
@@ -1070,7 +1070,7 @@
         <v>17412</v>
       </c>
       <c r="B4" t="n">
-        <v>147860</v>
+        <v>179254</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -1131,7 +1131,7 @@
         <v>17412</v>
       </c>
       <c r="B5" t="n">
-        <v>147861</v>
+        <v>179255</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -1202,7 +1202,7 @@
         <v>17412</v>
       </c>
       <c r="B6" t="n">
-        <v>147862</v>
+        <v>179256</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -1267,7 +1267,7 @@
         <v>17412</v>
       </c>
       <c r="B7" t="n">
-        <v>147863</v>
+        <v>179257</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -1334,7 +1334,7 @@
         <v>17412</v>
       </c>
       <c r="B8" t="n">
-        <v>147864</v>
+        <v>179258</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -1399,7 +1399,7 @@
         <v>17412</v>
       </c>
       <c r="B9" t="n">
-        <v>147865</v>
+        <v>179259</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1466,7 +1466,7 @@
         <v>17412</v>
       </c>
       <c r="B10" t="n">
-        <v>147866</v>
+        <v>179260</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -1531,7 +1531,7 @@
         <v>17412</v>
       </c>
       <c r="B11" t="n">
-        <v>147867</v>
+        <v>179261</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,565 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Stephanie M</t>
-  </si>
-  <si>
-    <t>07/02/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r614958395-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>124956</t>
+  </si>
+  <si>
+    <t>614958395</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>Stunning 20s updated decor perfection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the perfect launching pad for exploring the insane amount of rad stuff happening in DTLA. The design, decor and comfort factors were off the charts! My assigned room was directly next to the elevator which is rough for me as a light sleeper. Not only did Andy, handle my room change like a pro, but I left feeling like he truly cared about my client experience which felt like a gift. The bed, showers and complimentary snacks were . That’s a rare quality these days! I’ll be back in October again and I can’t wait to stay at Hotel Figueroa. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r614229425-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>614229425</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>Cool design, Mediocre hotel</t>
+  </si>
+  <si>
+    <t>The vibe of this place in impressive, from the meticulous details of the public spaces, to the creative room design.  I reserved a small suite, but the room was cramped (even if cool).  The two front doors are confusing and neither is really designated as primary.  The check in lobby is tiny and feels like an afterthought. I loved the food at the restaurant, a clubby place with natural light. It felt comfortable and was obviously popular.  However, at over $500/night, this hotel certainly charges for it's LA hype.  It delivers style, but not good service or comfortable accommodations. Go for the bar/lobby scene, but stay somewhere else for a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Andrew D, Front Office Manager at Hotel Figueroa, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>The vibe of this place in impressive, from the meticulous details of the public spaces, to the creative room design.  I reserved a small suite, but the room was cramped (even if cool).  The two front doors are confusing and neither is really designated as primary.  The check in lobby is tiny and feels like an afterthought. I loved the food at the restaurant, a clubby place with natural light. It felt comfortable and was obviously popular.  However, at over $500/night, this hotel certainly charges for it's LA hype.  It delivers style, but not good service or comfortable accommodations. Go for the bar/lobby scene, but stay somewhere else for a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r613802378-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>613802378</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Beautifully well-done boutique hotel</t>
+  </si>
+  <si>
+    <t>We stayed here just one night. It's a lovely boutique property. Feels very comfortable and inviting. The pool area is nice, just make sure you get down there early to grab chaise lounges. It's walking distance to a lot of downtown including grocery stores, restaurants, bars, metro and shopping. Notes for management:1) The sign says complimentary water in basket, but there was none2) Why are there no hooks or places to hang your bath towels in the bathroom? 3) The Fitness Center is on the 2nd Floor but upon entering the 2nd Floor how would one know where to find it? There are no signs4) I loved the tablet. Please add a "Request Ice" under the Services menu. Since ice isn't self-service, you have to call to get it, but cannot request it through the tablet.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here just one night. It's a lovely boutique property. Feels very comfortable and inviting. The pool area is nice, just make sure you get down there early to grab chaise lounges. It's walking distance to a lot of downtown including grocery stores, restaurants, bars, metro and shopping. Notes for management:1) The sign says complimentary water in basket, but there was none2) Why are there no hooks or places to hang your bath towels in the bathroom? 3) The Fitness Center is on the 2nd Floor but upon entering the 2nd Floor how would one know where to find it? There are no signs4) I loved the tablet. Please add a "Request Ice" under the Services menu. Since ice isn't self-service, you have to call to get it, but cannot request it through the tablet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r613211169-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>613211169</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Will be back</t>
+  </si>
+  <si>
+    <t>I stayed at the Hotel Figueroa by myself for 2 nights for a midweek getaway in LA. I had always wanted to visit LA but did not have a chance to so when my boyfriend had to cancel our vacation plans, I took the opportunity to explore by myself. When I got to the hotel to check in, they upgraded me from a room to a suite and also told me I would have free breakfast. The decor itself in the hotel makes it worth staying. I definitely splurged while I was here but I would do it again. The breakfast area is also very beautiful as it is right by the pool. Breakfast was delicious and not too expensive. The entire staff was very friendly and hospitable. I got a blister from walking around in heels on hilly sidewalks and they gave me a bandaid when I asked if they had any. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Hotel Figueroa by myself for 2 nights for a midweek getaway in LA. I had always wanted to visit LA but did not have a chance to so when my boyfriend had to cancel our vacation plans, I took the opportunity to explore by myself. When I got to the hotel to check in, they upgraded me from a room to a suite and also told me I would have free breakfast. The decor itself in the hotel makes it worth staying. I definitely splurged while I was here but I would do it again. The breakfast area is also very beautiful as it is right by the pool. Breakfast was delicious and not too expensive. The entire staff was very friendly and hospitable. I got a blister from walking around in heels on hilly sidewalks and they gave me a bandaid when I asked if they had any. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r612942981-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>612942981</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A study in contrast </t>
+  </si>
+  <si>
+    <t>Lots to like about this renovated hotel with lots of old world charm and character. Let's start with a Lyft arrival on a busy downtown street, but no worries because the spacious hotel parking lot is right next door. The crowded reception area with room for seemingly 2 staff had 4-5 bustling crew getting luggage and rooms settled in a flash (checkout was surprisingly crowded but fast as well).Room 809 was tiny with a comfy double bed but no desk to work at and no room to set out two suitcases. No lightswitch at entrance and had to feel around in the dark to turn on bathroom light, then find the single desk lamp. For a newly remodeled hotel, why just one lamp for the whole bedroom?Bathroom door was beautiful frosted glass, but downside was using the RR in middle of night or early morning shined bright light into sleeping area.Bathroom had no place to hang bath towels or clothes.Cool iPad clock/alarm didn't dock well and ran out of power day 2.Noise from hallway conversations and elevator ding dings means I should have brought ear plugs.First floor dining room and lounge is lovely and food and service was great.Overall the staff was excellent and made you feel welcomed. Location to walk to my LA Convention Center meetings was 5 min. Happy to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>Andrew D, Front Office Manager at Hotel Figueroa, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Lots to like about this renovated hotel with lots of old world charm and character. Let's start with a Lyft arrival on a busy downtown street, but no worries because the spacious hotel parking lot is right next door. The crowded reception area with room for seemingly 2 staff had 4-5 bustling crew getting luggage and rooms settled in a flash (checkout was surprisingly crowded but fast as well).Room 809 was tiny with a comfy double bed but no desk to work at and no room to set out two suitcases. No lightswitch at entrance and had to feel around in the dark to turn on bathroom light, then find the single desk lamp. For a newly remodeled hotel, why just one lamp for the whole bedroom?Bathroom door was beautiful frosted glass, but downside was using the RR in middle of night or early morning shined bright light into sleeping area.Bathroom had no place to hang bath towels or clothes.Cool iPad clock/alarm didn't dock well and ran out of power day 2.Noise from hallway conversations and elevator ding dings means I should have brought ear plugs.First floor dining room and lounge is lovely and food and service was great.Overall the staff was excellent and made you feel welcomed. Location to walk to my LA Convention Center meetings was 5 min. Happy to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r611282194-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>611282194</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>I like it a lot, but they have a little work to do.</t>
+  </si>
+  <si>
+    <t>For the most part, I really like this hotel. It's comfortable, luxurious, and quiet (rare Downtown) with some nice choices in the hotel for food and drinks. The problem with the hotel might get worked out soon, with most of them maintenance and construction issues. After reading some of the reviews online, it was funny to check into a room with a toilet seat that didn't fit, and a safe that didn't work... all things pointed out by other reviewers, and haven't been addressed yet by the hotel. In may room, there were several other problems, but none of them large enough to ruin my stay. I had a suite, and the TV in the sitting room didn't work, in the bedroom, the lights behind the bed kept flashing on and off. As others have pointed out, housekeeping was hit and miss, sometimes they brought coffee and water, sometimes not, sometimes the shower was cleaned, sometimes not. The bathroom had some quirks, the door opened outward towards the bed, which was odd and inconvenient, there was bar soap for the sinks but no soap dish, the shower doors were full height reeded glass, but there was no light in the shower, so it was dark inside. 
+The area across from LA Live and Staples is good for a game, but not my favorite. Figueroa is pretty seedy day or night, and the crowds at LA Live are not the best....For the most part, I really like this hotel. It's comfortable, luxurious, and quiet (rare Downtown) with some nice choices in the hotel for food and drinks. The problem with the hotel might get worked out soon, with most of them maintenance and construction issues. After reading some of the reviews online, it was funny to check into a room with a toilet seat that didn't fit, and a safe that didn't work... all things pointed out by other reviewers, and haven't been addressed yet by the hotel. In may room, there were several other problems, but none of them large enough to ruin my stay. I had a suite, and the TV in the sitting room didn't work, in the bedroom, the lights behind the bed kept flashing on and off. As others have pointed out, housekeeping was hit and miss, sometimes they brought coffee and water, sometimes not, sometimes the shower was cleaned, sometimes not. The bathroom had some quirks, the door opened outward towards the bed, which was odd and inconvenient, there was bar soap for the sinks but no soap dish, the shower doors were full height reeded glass, but there was no light in the shower, so it was dark inside. The area across from LA Live and Staples is good for a game, but not my favorite. Figueroa is pretty seedy day or night, and the crowds at LA Live are not the best. While there are some good choices within walking distance, it's pretty touristy in the immediate area. That said, the hotel's common areas are beautiful, the room I was in was well designed, the lobby bar was quite comfortable to work in, eat in or have a drink, the poolside bars were quite relaxing, and the restaurant was very good. I wouldn't hesitate to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the most part, I really like this hotel. It's comfortable, luxurious, and quiet (rare Downtown) with some nice choices in the hotel for food and drinks. The problem with the hotel might get worked out soon, with most of them maintenance and construction issues. After reading some of the reviews online, it was funny to check into a room with a toilet seat that didn't fit, and a safe that didn't work... all things pointed out by other reviewers, and haven't been addressed yet by the hotel. In may room, there were several other problems, but none of them large enough to ruin my stay. I had a suite, and the TV in the sitting room didn't work, in the bedroom, the lights behind the bed kept flashing on and off. As others have pointed out, housekeeping was hit and miss, sometimes they brought coffee and water, sometimes not, sometimes the shower was cleaned, sometimes not. The bathroom had some quirks, the door opened outward towards the bed, which was odd and inconvenient, there was bar soap for the sinks but no soap dish, the shower doors were full height reeded glass, but there was no light in the shower, so it was dark inside. 
+The area across from LA Live and Staples is good for a game, but not my favorite. Figueroa is pretty seedy day or night, and the crowds at LA Live are not the best....For the most part, I really like this hotel. It's comfortable, luxurious, and quiet (rare Downtown) with some nice choices in the hotel for food and drinks. The problem with the hotel might get worked out soon, with most of them maintenance and construction issues. After reading some of the reviews online, it was funny to check into a room with a toilet seat that didn't fit, and a safe that didn't work... all things pointed out by other reviewers, and haven't been addressed yet by the hotel. In may room, there were several other problems, but none of them large enough to ruin my stay. I had a suite, and the TV in the sitting room didn't work, in the bedroom, the lights behind the bed kept flashing on and off. As others have pointed out, housekeeping was hit and miss, sometimes they brought coffee and water, sometimes not, sometimes the shower was cleaned, sometimes not. The bathroom had some quirks, the door opened outward towards the bed, which was odd and inconvenient, there was bar soap for the sinks but no soap dish, the shower doors were full height reeded glass, but there was no light in the shower, so it was dark inside. The area across from LA Live and Staples is good for a game, but not my favorite. Figueroa is pretty seedy day or night, and the crowds at LA Live are not the best. While there are some good choices within walking distance, it's pretty touristy in the immediate area. That said, the hotel's common areas are beautiful, the room I was in was well designed, the lobby bar was quite comfortable to work in, eat in or have a drink, the poolside bars were quite relaxing, and the restaurant was very good. I wouldn't hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r609321568-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>609321568</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very clean and newly upgraded hotel.  The lobby is very small and I imagine gets quite crowded when busy.  Room was very nice and we had a view.  We ate at the cafe by the pool in the morning and it was nice but service was a bit slow.  A little pricey but would consider staying here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew D, Front Office Manager at Hotel Figueroa, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Very clean and newly upgraded hotel.  The lobby is very small and I imagine gets quite crowded when busy.  Room was very nice and we had a view.  We ate at the cafe by the pool in the morning and it was nice but service was a bit slow.  A little pricey but would consider staying here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r609051385-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>609051385</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Great spot to stay in DTLA!</t>
+  </si>
+  <si>
+    <t>More of a boutique hotel then a chain hotel for sure. Great check-in...personable and professional. We had a small suite with 2 distinct areas. Living area was somewhat small but bedroom and bath were ample size, not huge by any means though. What distinguishes this hotel from others was the personal touch. Very friendly and clearly interested in delivering a touch notch hospitality experience. Breakfast was very good. Nice in room house basket of snacks. Great location! Nice bar area.MoreShow less</t>
+  </si>
+  <si>
+    <t>More of a boutique hotel then a chain hotel for sure. Great check-in...personable and professional. We had a small suite with 2 distinct areas. Living area was somewhat small but bedroom and bath were ample size, not huge by any means though. What distinguishes this hotel from others was the personal touch. Very friendly and clearly interested in delivering a touch notch hospitality experience. Breakfast was very good. Nice in room house basket of snacks. Great location! Nice bar area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r608637672-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>608637672</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Excellent new hotel in downtown!</t>
+  </si>
+  <si>
+    <t>L.A downtown over the las few years has changed and inproved quite a lot, it has acrually become a nice place i would like to live, with nice local shops/ restaurants and cafe’s. Hotel Figueroa is one excellent example of new buildings being born on old ex deteriorated blocks. The hotel has a hostory brought perfectly to our dates and it has beautifully been refurbished to a kind of “haciwenda style”.Its very clean and comfortable plus restaurant is very good. I only regret staying only one night. I really rediscovered LA downtown on this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>L.A downtown over the las few years has changed and inproved quite a lot, it has acrually become a nice place i would like to live, with nice local shops/ restaurants and cafe’s. Hotel Figueroa is one excellent example of new buildings being born on old ex deteriorated blocks. The hotel has a hostory brought perfectly to our dates and it has beautifully been refurbished to a kind of “haciwenda style”.Its very clean and comfortable plus restaurant is very good. I only regret staying only one night. I really rediscovered LA downtown on this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r608246540-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>608246540</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTLAs LHW </t>
+  </si>
+  <si>
+    <t>I always wanted to stay in Downtown Los Angeles. This hotel does not disappoint. From the friendly staff to the Spanish design. The pool, bars and restaurants are great. Literally next door to the staples centre and short walk from the historical district of old Hollywood on Broadway.My first but definitely not my last stay.Ps Complimentary water and snacks are a very nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always wanted to stay in Downtown Los Angeles. This hotel does not disappoint. From the friendly staff to the Spanish design. The pool, bars and restaurants are great. Literally next door to the staples centre and short walk from the historical district of old Hollywood on Broadway.My first but definitely not my last stay.Ps Complimentary water and snacks are a very nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r607552074-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>607552074</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>So close to perfect...</t>
+  </si>
+  <si>
+    <t>What's good:  THE LOOK - a fun mix of contemporary and old Hollywood/California Mission /Moorish style with a spectacular lounge/lobby/restaurant space and pool/bar area. Gorgeous furnishings, light fixtures and an assortment of vibrant work by LA based artists. LOCATION - great for all DTLA museums and the concert hall, near to USC, the convention center etc, &amp; within walking distance of good restaurants (and even a Ralph's market) FRIENDLY RECEPTION STAFF - pleasant, welcoming and eager to help. BEDS very comfy with soft sheets and good pillows. COMPLIMENTARY SNACKS/WATER - basket filled with cookies, pretzels, chips, candy, kettle corn and yes! water in a carton (please wake up world to this idea) BOOKS - wonderfully generous assortment of art/photography books in the lobby and LA authored paperbacks in the rooms.
+What's not so good:  RESTAURANT/BAR SERVICE - staff overwhelmed and offered no eye contact or greeting (in huge contrast to the reception area) we had trouble ordering coffee in the morning and a drink in the evening (though while waiting in vain got to watch some extravagant cocktail making involving foot-long spoons, giant goblets, herbs, berries and magical vapour) ROOM SERVICE - errrrr, we tried but the iPad (provided in the room) method was non-functioning and the menu (no hard copy) was limited and surprisingly unappealing (room service doesn't need to reflect the chef - sometimes you just want a club sandwich or a chopped salad, you know?) THE BATHROOM...What's good:  THE LOOK - a fun mix of contemporary and old Hollywood/California Mission /Moorish style with a spectacular lounge/lobby/restaurant space and pool/bar area. Gorgeous furnishings, light fixtures and an assortment of vibrant work by LA based artists. LOCATION - great for all DTLA museums and the concert hall, near to USC, the convention center etc, &amp; within walking distance of good restaurants (and even a Ralph's market) FRIENDLY RECEPTION STAFF - pleasant, welcoming and eager to help. BEDS very comfy with soft sheets and good pillows. COMPLIMENTARY SNACKS/WATER - basket filled with cookies, pretzels, chips, candy, kettle corn and yes! water in a carton (please wake up world to this idea) BOOKS - wonderfully generous assortment of art/photography books in the lobby and LA authored paperbacks in the rooms.What's not so good:  RESTAURANT/BAR SERVICE - staff overwhelmed and offered no eye contact or greeting (in huge contrast to the reception area) we had trouble ordering coffee in the morning and a drink in the evening (though while waiting in vain got to watch some extravagant cocktail making involving foot-long spoons, giant goblets, herbs, berries and magical vapour) ROOM SERVICE - errrrr, we tried but the iPad (provided in the room) method was non-functioning and the menu (no hard copy) was limited and surprisingly unappealing (room service doesn't need to reflect the chef - sometimes you just want a club sandwich or a chopped salad, you know?) THE BATHROOM - pretty tiles and hardware but no towel rails and only one hook on the wall (for bathrobe? for towel? forced to choose) a shower big enough for a crowd but no bathtub (sigh) BEDROOM LIGHTING - by bed okay but dim/nonexistent by the furniture (thus impossible to read the books provided.) MAID SERVICE - uneven. Came back one evening to find a cleaning rag draped on the bed pillow, the snack basket was replenished some days and not others, toiletries not replenished at all.THE FIGUEROA is a stylish, fun (yet pleasingly grownup) hotel that hits just the right luxury notes and would benefit hugely from a more consistent level of management and some minor in-room design improvements.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nichoals C, Guest Relations Manager at Hotel Figueroa, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>What's good:  THE LOOK - a fun mix of contemporary and old Hollywood/California Mission /Moorish style with a spectacular lounge/lobby/restaurant space and pool/bar area. Gorgeous furnishings, light fixtures and an assortment of vibrant work by LA based artists. LOCATION - great for all DTLA museums and the concert hall, near to USC, the convention center etc, &amp; within walking distance of good restaurants (and even a Ralph's market) FRIENDLY RECEPTION STAFF - pleasant, welcoming and eager to help. BEDS very comfy with soft sheets and good pillows. COMPLIMENTARY SNACKS/WATER - basket filled with cookies, pretzels, chips, candy, kettle corn and yes! water in a carton (please wake up world to this idea) BOOKS - wonderfully generous assortment of art/photography books in the lobby and LA authored paperbacks in the rooms.
+What's not so good:  RESTAURANT/BAR SERVICE - staff overwhelmed and offered no eye contact or greeting (in huge contrast to the reception area) we had trouble ordering coffee in the morning and a drink in the evening (though while waiting in vain got to watch some extravagant cocktail making involving foot-long spoons, giant goblets, herbs, berries and magical vapour) ROOM SERVICE - errrrr, we tried but the iPad (provided in the room) method was non-functioning and the menu (no hard copy) was limited and surprisingly unappealing (room service doesn't need to reflect the chef - sometimes you just want a club sandwich or a chopped salad, you know?) THE BATHROOM...What's good:  THE LOOK - a fun mix of contemporary and old Hollywood/California Mission /Moorish style with a spectacular lounge/lobby/restaurant space and pool/bar area. Gorgeous furnishings, light fixtures and an assortment of vibrant work by LA based artists. LOCATION - great for all DTLA museums and the concert hall, near to USC, the convention center etc, &amp; within walking distance of good restaurants (and even a Ralph's market) FRIENDLY RECEPTION STAFF - pleasant, welcoming and eager to help. BEDS very comfy with soft sheets and good pillows. COMPLIMENTARY SNACKS/WATER - basket filled with cookies, pretzels, chips, candy, kettle corn and yes! water in a carton (please wake up world to this idea) BOOKS - wonderfully generous assortment of art/photography books in the lobby and LA authored paperbacks in the rooms.What's not so good:  RESTAURANT/BAR SERVICE - staff overwhelmed and offered no eye contact or greeting (in huge contrast to the reception area) we had trouble ordering coffee in the morning and a drink in the evening (though while waiting in vain got to watch some extravagant cocktail making involving foot-long spoons, giant goblets, herbs, berries and magical vapour) ROOM SERVICE - errrrr, we tried but the iPad (provided in the room) method was non-functioning and the menu (no hard copy) was limited and surprisingly unappealing (room service doesn't need to reflect the chef - sometimes you just want a club sandwich or a chopped salad, you know?) THE BATHROOM - pretty tiles and hardware but no towel rails and only one hook on the wall (for bathrobe? for towel? forced to choose) a shower big enough for a crowd but no bathtub (sigh) BEDROOM LIGHTING - by bed okay but dim/nonexistent by the furniture (thus impossible to read the books provided.) MAID SERVICE - uneven. Came back one evening to find a cleaning rag draped on the bed pillow, the snack basket was replenished some days and not others, toiletries not replenished at all.THE FIGUEROA is a stylish, fun (yet pleasingly grownup) hotel that hits just the right luxury notes and would benefit hugely from a more consistent level of management and some minor in-room design improvements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r606920505-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>606920505</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Toured this hotel and it’s amazing</t>
+  </si>
+  <si>
+    <t>I visited the hotel last night for their 92nd birthday celebration. It was AMAZING!! It has been restored and absolutely gorgeous.Parking next door is $10. We ate at the restaurant and the food was delicious. We tried the steak, the bone marrow, fried chicken, shishito peppers, and more. Everything tasted so wonderful!The suites were beautifully done and they have a lot of space. One of the rooms even has its own secret dining room that you access by pushing on a book on the bookcase. Another suite has access to the terrace that overlooks the pool. It has a living area that is very comfortable. There are great views of the city from the terrace. The terrace has access to the fitness room as well as stairs to go down to the pool. This is not a private terrace.There are several locations on site that can be used for events.I cannot wait to return!MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited the hotel last night for their 92nd birthday celebration. It was AMAZING!! It has been restored and absolutely gorgeous.Parking next door is $10. We ate at the restaurant and the food was delicious. We tried the steak, the bone marrow, fried chicken, shishito peppers, and more. Everything tasted so wonderful!The suites were beautifully done and they have a lot of space. One of the rooms even has its own secret dining room that you access by pushing on a book on the bookcase. Another suite has access to the terrace that overlooks the pool. It has a living area that is very comfortable. There are great views of the city from the terrace. The terrace has access to the fitness room as well as stairs to go down to the pool. This is not a private terrace.There are several locations on site that can be used for events.I cannot wait to return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r606508507-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>606508507</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Poorly-conceived automation</t>
+  </si>
+  <si>
+    <t>The nice staff is hindered by the abundant mechanical problems in this hotel.  It was closed for a major overhaul; the architect should have his/her license revoked.  It took 3 employees to try to figure out how to keep the A/C on when we were asleep--and not moving around to activate the motion detectors!  There are no phones and the iPads did not function.  It is overpriced.  Adjacent parking lot is overpriced.  Location is convenient to the Convention center.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The nice staff is hindered by the abundant mechanical problems in this hotel.  It was closed for a major overhaul; the architect should have his/her license revoked.  It took 3 employees to try to figure out how to keep the A/C on when we were asleep--and not moving around to activate the motion detectors!  There are no phones and the iPads did not function.  It is overpriced.  Adjacent parking lot is overpriced.  Location is convenient to the Convention center.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r604035455-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>604035455</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>FANTASTIC PROPERTY &amp; EXCELLENT SERVICE</t>
+  </si>
+  <si>
+    <t>An oasis in downtown LA.  Staff were super friendly upon arrival and check in was a breeze.  Got an upgraded room (thanks!) and spent time in the bar back by the pool and the restaurant by the pool  Food was delicious! Small workout facility but had what I needed in the way of an Elliptical, water, fruit, towels...This property is beautifully designed with interesting decor and artwork, the elevator doors are handpainted by a local artist and so cool.  My only recommendation to the hotel is about the ice machines - there are doors that say ICE MACHINE on each floor but most are actually supply closets for housekeeping.  I tried 4 floors before I found one that had an ice machine.  Might want to tell ppl where these are so they don't have to go hunting around on every floor.Ordered room service and it was DELICIOUS.  In room dining doesn't always stand up to dining in the actual restaurant but this one was perfect.  They even served it on pretty plates and the latte was the best I had during my week stay in CA.  Overall this hotel was incredible, I would stay here again and again.  The pool was a great place to hang out and the dining and beverage service there was great too - FROSE.  YUM!  Go here even if you are staying at the hotel for the bars and restaurant.   It's gorgeous!MoreShow less</t>
+  </si>
+  <si>
+    <t>An oasis in downtown LA.  Staff were super friendly upon arrival and check in was a breeze.  Got an upgraded room (thanks!) and spent time in the bar back by the pool and the restaurant by the pool  Food was delicious! Small workout facility but had what I needed in the way of an Elliptical, water, fruit, towels...This property is beautifully designed with interesting decor and artwork, the elevator doors are handpainted by a local artist and so cool.  My only recommendation to the hotel is about the ice machines - there are doors that say ICE MACHINE on each floor but most are actually supply closets for housekeeping.  I tried 4 floors before I found one that had an ice machine.  Might want to tell ppl where these are so they don't have to go hunting around on every floor.Ordered room service and it was DELICIOUS.  In room dining doesn't always stand up to dining in the actual restaurant but this one was perfect.  They even served it on pretty plates and the latte was the best I had during my week stay in CA.  Overall this hotel was incredible, I would stay here again and again.  The pool was a great place to hang out and the dining and beverage service there was great too - FROSE.  YUM!  Go here even if you are staying at the hotel for the bars and restaurant.   It's gorgeous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r604005416-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>604005416</t>
+  </si>
+  <si>
+    <t>classic hotel well located</t>
+  </si>
+  <si>
+    <t>valet parking easy access, front desk VERY helpful (Julie) and friendly, nice bar area and rooms comfy. Walking distance to lots of entertainment options and dining. nice pool (with bar ) area. I was only here overnight but I was happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>valet parking easy access, front desk VERY helpful (Julie) and friendly, nice bar area and rooms comfy. Walking distance to lots of entertainment options and dining. nice pool (with bar ) area. I was only here overnight but I was happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r603593585-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>603593585</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Veranda</t>
+  </si>
+  <si>
+    <t>Disclosure: This hotel review is for the service at the Veranda for Sunday brunch.First off, the hotel is beautiful, super scenic and posh...not really my scene/style as I am not an over the top Angelino but I digress. My friend and I went for brunch and the service would make a snail sneer. The bartender seemed to be super frazzled and the place was just getting started, she was so slow and appeared to be stressed out, I overheard her tell a coworker that a guy who closed his tab did not leave a tip, I completely understand why he didn't. Brunch portions were small and the drinks are quite pricey. We paid roughly 16.00 for each cocktail and we had quite a few. Our server was very apologetic as he understood the bartender was in over her head, he made sure our water was always full and was very nice. Perhaps it was an off day but brunch is a big deal in L.A., that paired with a large crowd and one stressed bartender was less than pleasant. Nice hotel groundsno drink specialsprobably won't go back5 stars for the ambiance, less two for the serviceMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Disclosure: This hotel review is for the service at the Veranda for Sunday brunch.First off, the hotel is beautiful, super scenic and posh...not really my scene/style as I am not an over the top Angelino but I digress. My friend and I went for brunch and the service would make a snail sneer. The bartender seemed to be super frazzled and the place was just getting started, she was so slow and appeared to be stressed out, I overheard her tell a coworker that a guy who closed his tab did not leave a tip, I completely understand why he didn't. Brunch portions were small and the drinks are quite pricey. We paid roughly 16.00 for each cocktail and we had quite a few. Our server was very apologetic as he understood the bartender was in over her head, he made sure our water was always full and was very nice. Perhaps it was an off day but brunch is a big deal in L.A., that paired with a large crowd and one stressed bartender was less than pleasant. Nice hotel groundsno drink specialsprobably won't go back5 stars for the ambiance, less two for the serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r602824236-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>602824236</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Strange Place, they either ran out of money or ran out of good taste...</t>
+  </si>
+  <si>
+    <t>I usually stay at the Four Seasons when in LA, but my niece recommended to stay here. Big mistake, the room was small, had almost no closet space, the bathroom appears to be under construction, there is no place to hang towels, no place to put the soap, the toilet is broken or misplaced, the bathroom tiles are broken, the walk finishes, have not been finished. Spoke to the manager, Andrew, and showed him personally the condition of the room, which he calls a Superior Queen something. Another place to avoid, if you want to have a good time in LA and if you want a comfortable room with a finished bathroom.  By the way, they have a sign that reads, LEADING HOTELS OF THE WORLD, a very misleading sign right at the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nichoals C, Front Office Manager at Hotel Figueroa, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I usually stay at the Four Seasons when in LA, but my niece recommended to stay here. Big mistake, the room was small, had almost no closet space, the bathroom appears to be under construction, there is no place to hang towels, no place to put the soap, the toilet is broken or misplaced, the bathroom tiles are broken, the walk finishes, have not been finished. Spoke to the manager, Andrew, and showed him personally the condition of the room, which he calls a Superior Queen something. Another place to avoid, if you want to have a good time in LA and if you want a comfortable room with a finished bathroom.  By the way, they have a sign that reads, LEADING HOTELS OF THE WORLD, a very misleading sign right at the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r602224907-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>602224907</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Loved this hotel!</t>
+  </si>
+  <si>
+    <t>Great vibe, nicely furnished and decorated, conveniently located by the convention center. Each room has a complimentary snack basket that’s refillable any time. It’s got the good stuff in it, too. Cartons of water are also complimentary. Staff was super attentive. The rooms are small because of the older building it’s in but that’s fine with me. Totally delightful stay and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great vibe, nicely furnished and decorated, conveniently located by the convention center. Each room has a complimentary snack basket that’s refillable any time. It’s got the good stuff in it, too. Cartons of water are also complimentary. Staff was super attentive. The rooms are small because of the older building it’s in but that’s fine with me. Totally delightful stay and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r601852582-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>601852582</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Boutique!</t>
+  </si>
+  <si>
+    <t>Cute little hotel! Enjoyed great service and will definitely stay there again. Very friendly and helpful staff, clean, updated rooms. Walking distance to a lot of restaurants. 1/2 block from The Original PantryCafe open 24hrs. Complimentary snacks &amp; iPad use during stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded August 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2018</t>
+  </si>
+  <si>
+    <t>Cute little hotel! Enjoyed great service and will definitely stay there again. Very friendly and helpful staff, clean, updated rooms. Walking distance to a lot of restaurants. 1/2 block from The Original PantryCafe open 24hrs. Complimentary snacks &amp; iPad use during stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r600286488-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>600286488</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>A nice downtown hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel in a good downtown location. The rooms are nice and the hotel has some good facilities. The first night my room was close to the main street which was a bit noisy, but the staff were really helpful and moved me the next day. There is a good breakfast spot nearby but expect to wait in line. I'd definitely stay here again if I'm staying downtown and will recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice hotel in a good downtown location. The rooms are nice and the hotel has some good facilities. The first night my room was close to the main street which was a bit noisy, but the staff were really helpful and moved me the next day. There is a good breakfast spot nearby but expect to wait in line. I'd definitely stay here again if I'm staying downtown and will recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r599869645-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>599869645</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>It is very cozy place, but very up-today as well. Order additional pillow or book a table with iPad from your room, fill the history in Oldtimer ceramic, try good coffee or just relax! The only minus- not friendly personal  in restaurant, wether in the evening nor in the morning by breakfast we got any smile on the face. Breakfast took about an hour, 10 minutes we were eating only... But will notice that Hotel for future any way!MoreShow less</t>
+  </si>
+  <si>
+    <t>It is very cozy place, but very up-today as well. Order additional pillow or book a table with iPad from your room, fill the history in Oldtimer ceramic, try good coffee or just relax! The only minus- not friendly personal  in restaurant, wether in the evening nor in the morning by breakfast we got any smile on the face. Breakfast took about an hour, 10 minutes we were eating only... But will notice that Hotel for future any way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r597687808-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>597687808</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Loved the hotel, already re-booked</t>
+  </si>
+  <si>
+    <t>I did not know what to expect when I arrived at the Hotel Figueroa. I had stayed in LA the previous month at an Airbnb and it had not been great. Upon arriving I was greeted by Karen and Ray. Both were extremely lovely and when I told them about my terrible United flight drama (cancelled and delayed flights) Karen was kind enough to upgrade me to a suite. The location of the hotel is awesome, the lobby, pool and rooms are beautiful and the free snacks and water are an awesome bonus. I was only staying 2 days and was kicking myself for not booking the hotel for longer (I stayed somewhere else for my last 2 days in LA). I loved it so much, it was one of the motivating factors for me to return to LA for my birthday and to celebrate NYE. See you in December Hotel Figueroa!MoreShow less</t>
+  </si>
+  <si>
+    <t>I did not know what to expect when I arrived at the Hotel Figueroa. I had stayed in LA the previous month at an Airbnb and it had not been great. Upon arriving I was greeted by Karen and Ray. Both were extremely lovely and when I told them about my terrible United flight drama (cancelled and delayed flights) Karen was kind enough to upgrade me to a suite. The location of the hotel is awesome, the lobby, pool and rooms are beautiful and the free snacks and water are an awesome bonus. I was only staying 2 days and was kicking myself for not booking the hotel for longer (I stayed somewhere else for my last 2 days in LA). I loved it so much, it was one of the motivating factors for me to return to LA for my birthday and to celebrate NYE. See you in December Hotel Figueroa!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r597153987-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>597153987</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>BeautyCON weekend</t>
+  </si>
+  <si>
+    <t>Chose this hotel because of how close it was to the convention center, also the fact that it has been around forever, although my daughter swore it was haunted.  I think it just added to the charm.  I had read some of the other reviews and someone had remarked that it was difficult to find, which I found funny, but it kind of is.  You can see the building but you have to be on Figueroa or you can't get to the parking lot to valet, and Figueroa is a one way street so it's just something to be aware of.  Valet guys were great, check in was quick and easy, and the staff was very personable.  the room itself was just ok, I felt it was arranged oddly (the bed headboards were in front of the windows) and the biggest problem I had was the toilet seat did not fit on the toilet!  The shower had great water pressure but it was cold for the first shower of the morning and only warmed up by the time the 4th person in our party had showered (we were on the 12th floor) so maybe it took a long time for the hot water to get that far.  We had breakfast in one of the restaurants on site (Brevva I think) overlooking the pool, and everything was amazing just a little spendy for what you get.    All in all it was...Chose this hotel because of how close it was to the convention center, also the fact that it has been around forever, although my daughter swore it was haunted.  I think it just added to the charm.  I had read some of the other reviews and someone had remarked that it was difficult to find, which I found funny, but it kind of is.  You can see the building but you have to be on Figueroa or you can't get to the parking lot to valet, and Figueroa is a one way street so it's just something to be aware of.  Valet guys were great, check in was quick and easy, and the staff was very personable.  the room itself was just ok, I felt it was arranged oddly (the bed headboards were in front of the windows) and the biggest problem I had was the toilet seat did not fit on the toilet!  The shower had great water pressure but it was cold for the first shower of the morning and only warmed up by the time the 4th person in our party had showered (we were on the 12th floor) so maybe it took a long time for the hot water to get that far.  We had breakfast in one of the restaurants on site (Brevva I think) overlooking the pool, and everything was amazing just a little spendy for what you get.    All in all it was a fun time, love the atmosphere of the hotel, would recommend staying there at least once in your lifetime just to say that you had, but for what the room cost for the night I would probably try someplace else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Chose this hotel because of how close it was to the convention center, also the fact that it has been around forever, although my daughter swore it was haunted.  I think it just added to the charm.  I had read some of the other reviews and someone had remarked that it was difficult to find, which I found funny, but it kind of is.  You can see the building but you have to be on Figueroa or you can't get to the parking lot to valet, and Figueroa is a one way street so it's just something to be aware of.  Valet guys were great, check in was quick and easy, and the staff was very personable.  the room itself was just ok, I felt it was arranged oddly (the bed headboards were in front of the windows) and the biggest problem I had was the toilet seat did not fit on the toilet!  The shower had great water pressure but it was cold for the first shower of the morning and only warmed up by the time the 4th person in our party had showered (we were on the 12th floor) so maybe it took a long time for the hot water to get that far.  We had breakfast in one of the restaurants on site (Brevva I think) overlooking the pool, and everything was amazing just a little spendy for what you get.    All in all it was...Chose this hotel because of how close it was to the convention center, also the fact that it has been around forever, although my daughter swore it was haunted.  I think it just added to the charm.  I had read some of the other reviews and someone had remarked that it was difficult to find, which I found funny, but it kind of is.  You can see the building but you have to be on Figueroa or you can't get to the parking lot to valet, and Figueroa is a one way street so it's just something to be aware of.  Valet guys were great, check in was quick and easy, and the staff was very personable.  the room itself was just ok, I felt it was arranged oddly (the bed headboards were in front of the windows) and the biggest problem I had was the toilet seat did not fit on the toilet!  The shower had great water pressure but it was cold for the first shower of the morning and only warmed up by the time the 4th person in our party had showered (we were on the 12th floor) so maybe it took a long time for the hot water to get that far.  We had breakfast in one of the restaurants on site (Brevva I think) overlooking the pool, and everything was amazing just a little spendy for what you get.    All in all it was a fun time, love the atmosphere of the hotel, would recommend staying there at least once in your lifetime just to say that you had, but for what the room cost for the night I would probably try someplace else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r596455897-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>596455897</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible customer service </t>
+  </si>
+  <si>
+    <t>I stayed here as this hotel was a leading hotels of the world member I assumed it’s a 5 star but it was not maybe 3.5 or 4 star although due to my membership with LHw they upgraded me to a suite which was nice and big but that’s it their customer service was horrible worst was their veranda restuarant staff went there for breakfast and requested for an egg white omelette the waiter refused saying we can do a omelette which was there in the menu but cannot do an red white omelette I argued that’s its a standard thing which every restaurant which can do an omelette can make but the guy was pretty rude and said we cannot do any modifications in our menu???? I wanted to talk to thto chef he refused saying our chef is busy and does not talk to customers then I complained to the duty manager but she was also did nothing I am sure not coming here again MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here as this hotel was a leading hotels of the world member I assumed it’s a 5 star but it was not maybe 3.5 or 4 star although due to my membership with LHw they upgraded me to a suite which was nice and big but that’s it their customer service was horrible worst was their veranda restuarant staff went there for breakfast and requested for an egg white omelette the waiter refused saying we can do a omelette which was there in the menu but cannot do an red white omelette I argued that’s its a standard thing which every restaurant which can do an omelette can make but the guy was pretty rude and said we cannot do any modifications in our menu???? I wanted to talk to thto chef he refused saying our chef is busy and does not talk to customers then I complained to the duty manager but she was also did nothing I am sure not coming here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r592267194-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>592267194</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Staycation Done Right</t>
+  </si>
+  <si>
+    <t>Came here for a staycation and was pleasantly surprised how charming and cute the hotel was! The hotel was recently remodeled and reopened earlier this year. All amenities and restaurants/bars are really well decorated. The hotel rooms were great and had an iPad that made ordering room service and toiletries easy! Everything was thought out and made to be photo worthy. It was great sitting by the pool and relaxing with a cocktail.Super close to Faith &amp; Flower if you’re looking for a trendy restaurant! MoreShow less</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Came here for a staycation and was pleasantly surprised how charming and cute the hotel was! The hotel was recently remodeled and reopened earlier this year. All amenities and restaurants/bars are really well decorated. The hotel rooms were great and had an iPad that made ordering room service and toiletries easy! Everything was thought out and made to be photo worthy. It was great sitting by the pool and relaxing with a cocktail.Super close to Faith &amp; Flower if you’re looking for a trendy restaurant! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591561599-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591561599</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Amazing concierge</t>
+  </si>
+  <si>
+    <t>Very professional hotel in central location. In particular, an amazing concierge service conducted by Samantha Surabian, who gave me perfect travel suggestions and helped me to amend numerous bookings.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Very professional hotel in central location. In particular, an amazing concierge service conducted by Samantha Surabian, who gave me perfect travel suggestions and helped me to amend numerous bookings.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591279393-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
-    <t>32655</t>
-  </si>
-  <si>
-    <t>124956</t>
-  </si>
-  <si>
     <t>591279393</t>
   </si>
   <si>
@@ -177,24 +721,15 @@
     <t>Had a wonderful stay at this newly remodeled beauty. The grounds and rooms are all lovely. I found the room to be very comfortable. The restaurants and bars were great as well. The staff was all very friendly and helpful as well. Highly recommend! MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 5 days ago</t>
-  </si>
-  <si>
-    <t>Responded 5 days ago</t>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
   </si>
   <si>
     <t>Had a wonderful stay at this newly remodeled beauty. The grounds and rooms are all lovely. I found the room to be very comfortable. The restaurants and bars were great as well. The staff was all very friendly and helpful as well. Highly recommend! More</t>
   </si>
   <si>
-    <t>Tiffany T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r591011148-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -210,15 +745,9 @@
     <t>Friendly staff very accommodating to all your needs. Very nice location to staples center and Microsoft theater. We were able to walk to the concerts, Bet awards, basketball game, and fan fest activities. Will definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Friendly staff very accommodating to all your needs. Very nice location to staples center and Microsoft theater. We were able to walk to the concerts, Bet awards, basketball game, and fan fest activities. Will definitely stay here again.More</t>
   </si>
   <si>
-    <t>CuisineandTravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r590607226-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -237,7 +766,40 @@
     <t>If you enjoy staying at a unique hotel the immerses you in the culture of your destination then Hotel Figueroa will check all your boxes. The hotel is incredibly beautiful featuring art deco decor while still maintaining its historic Spanish style. The rooms feature captivating artwork and trendy mid-century modern furnishings. There are also desks with a variety of books on artists and LA life. I especially apreciate the espresso machines in the room, which I prefer over coffee. The biggest delight was the complimentary basket of goodies in my room and homemade cookies to nosh on! More</t>
   </si>
   <si>
-    <t>Bamit422</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r590275905-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>590275905</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Charm, history and luxury</t>
+  </si>
+  <si>
+    <t>We used to live in downtown Los Angeles and were anxious to see the results of the recent remodel of Hotel Figueroa. We thoroughly loved the look and feel of this historic building. Its location is convenient to Staples, restaurants and not that far from the subway station. Our room was elegant and well appointed, and service was attentive. Now, we were upgraded to a suite, which probably biased our opinion, but we'll definitely give the place another stay the next time we're back in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>We used to live in downtown Los Angeles and were anxious to see the results of the recent remodel of Hotel Figueroa. We thoroughly loved the look and feel of this historic building. Its location is convenient to Staples, restaurants and not that far from the subway station. Our room was elegant and well appointed, and service was attentive. Now, we were upgraded to a suite, which probably biased our opinion, but we'll definitely give the place another stay the next time we're back in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588656372-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588656372</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Wonderful little getaway</t>
+  </si>
+  <si>
+    <t>My husband was working down the street for the E3 convention and I decided to surprise him with a little two night getaway after a long work week.  I had booked our stay through hoteltonight.com and was informed at check-in that they typically give you the smallest room available.  Karen, at the front desk was so sweet and kind enough to upgrade us to a deluxe suite!  Our room was nice and quiet, just what we needed.  Loved the comfy bed and the complimentary water and snacks.  Any requests that we made the staff was very prompt to our needs.  Love the new renovation, hotel is more modern but still has touches of the retro style.  My only complaint is that we wanted service while lounging at the pool and we asked a porter or server who was walking around the pool if we could get service and was told that we had to walk to the bar to get drinks when we had seen him help another couple earlier at the pool.  I even asked the bartender if we could get service at the pool and he went out of his way to make sure that someone would take care of us.  Other than that had a wonderful stay with excellent service!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband was working down the street for the E3 convention and I decided to surprise him with a little two night getaway after a long work week.  I had booked our stay through hoteltonight.com and was informed at check-in that they typically give you the smallest room available.  Karen, at the front desk was so sweet and kind enough to upgrade us to a deluxe suite!  Our room was nice and quiet, just what we needed.  Loved the comfy bed and the complimentary water and snacks.  Any requests that we made the staff was very prompt to our needs.  Love the new renovation, hotel is more modern but still has touches of the retro style.  My only complaint is that we wanted service while lounging at the pool and we asked a porter or server who was walking around the pool if we could get service and was told that we had to walk to the bar to get drinks when we had seen him help another couple earlier at the pool.  I even asked the bartender if we could get service at the pool and he went out of his way to make sure that someone would take care of us.  Other than that had a wonderful stay with excellent service!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588591841-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -246,28 +808,13 @@
     <t>588591841</t>
   </si>
   <si>
-    <t>06/18/2018</t>
-  </si>
-  <si>
     <t>Perfect Location</t>
   </si>
   <si>
     <t>My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown...My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown LA convention, we will be rebooking here.  Why pay more money to stay at the Ritz-Carlton, when great service can be found right around the corner??MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 2 days ago</t>
-  </si>
-  <si>
-    <t>Responded 2 days ago</t>
-  </si>
-  <si>
     <t>My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown...My boyfriend and I stayed at Hotel Figueroa for four days while we attended E3 at the Convention Center.  The only hotel closer would have been the Ritz-Carlton, which was sold out.  This lovely boutique hotel suited us perfectly.  While I do think the A/C could have been better (it definitely felt like we were staying in a European hotel), the amenities and friendly staff were enough for me, that I would have no problem booking again.  You are provided an iPad in the room where you can do everything from request extra towels to order room service to set up a time for turn down service.  Two days we used the iPad to set up housekeeping.  One of the days it worked perfectly, while the other day it failed.  The housekeeping came to our room twice while we were still inside, so I guess they missed the memo.  Bed linens and towels were good quality. Internet connection worked well.  Satellite for the tv is another story.  Don't plan to watch a movie, because service is spotty at best (and this is with no rain).  The complimentary waters were a lifesaver and the snacks did not go unnoticed.  We ordered room service one evening, and the food was excellent.  We would have ordered it again, but the hours only operate until 10pm.  Luckily, there are great restaurants within walking distance in every direction.  If we come back for another downtown LA convention, we will be rebooking here.  Why pay more money to stay at the Ritz-Carlton, when great service can be found right around the corner??More</t>
-  </si>
-  <si>
-    <t>Jatin G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r588153999-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -289,13 +836,16 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Nichoals C, Guest Relations Manager at Hotel Figueroa, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
     <t>If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. 
 First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the...If you were impressed like me looking at the hotel pictures on trip advisor, then let me tell you that you are in for big disappointment. We stayed 3 nights at this hotel close to Grammy museum as we were attending some event in that area. First, this hotel is hard to find, especially at night when we reached, as it has a very small entrance and a sign that gets hidden by a bush right in front of the hotel. We saw pictures of rooms on trip advisor and on their website which made it look like a cool retro room. Our room (overlooking Marriott and a big neon bill board) was less then average. There was no coffee machine in the room, safe did not lock, there was no desk to work on and least to say none of this fancy artwork that you see on the pictures posted here. Our room was at the very end of the corridor and this place is so windy that you would always get lost trying to get to your room from elevator or the other way around. As for service, the snacks and the drinks in the room are free for use but our cleaning staff did not replenish then two of the three days we were there. They have a turn down service which is another huge disappointment. Generally a turn down service would keep your slippers by the bedside, keep some water and a cooking or small chocolate and lower the curtains. At this place, the only thing they did was check if bathroom and room trash cans were empty. Your slippers/shoes can continue to lie anywhere in the room, no lowering the blinds, no water, no chocolate/cookie. Another drawback is their expensive parking $45/night while right across the streets there are bunch of garages for $8/night-$10/night.The worst part -  we are travel bloggers invited by the hotel to stay at their hotel and review their service. We were told by their marketing team that we would be reimbursed for our stay and ever since our stay, the marketing department has gone cold and stopped responding to our emails/messages for reimbursement. Let me say that at the cost of our own money (~1500/3 nights....which I highly doubt would be refunded after this review), this hotel is sub par other hotels in the area and definitely would not recommend it.More</t>
   </si>
   <si>
-    <t>BandBVoyager</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r587900415-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -314,7 +864,37 @@
     <t>THE GOOD:Location, location, location.Excellent valet parking, and friendly, helpful, cooperative staff.Good restaurant onsite.Comfortable bed, comfortable soft pillows.Quiet room.Free fast wifi.Very nice amenities: free snack basket, water.THE BAD:&gt; VERY EXPENSIVE: $700+/night&gt; Very expensive valet parking: $45/night.&gt; Automatic light switch in bathroom turns on bright light every time you walk in, whether you want the light or not, blasting you in the face in the middle of the night and waking up your companion every time. Let ME turn on the light when I want it, dammit!&gt; A/C thermostat that does not stay put where you set it but reverts to some preset temperature after a little while. VERY annoying.&gt; No work desk. Just a table with an easy chair, not suited to work.&gt; Water pressure not quite high enough.SUMMARYA nice place but I'll stay here again only if I really have to, because the value received for $$$$ paid is just not there.More</t>
   </si>
   <si>
-    <t>Courtni P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r587885883-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587885883</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>I love this hotel and would highly recommend it. The pool is lovely and the restaurants are great. Comfy bed, clean, efficient staff. I only wish it were possible to turn up the lights in the bathroom. Very difficult to apply makeup! Other than that, I highly recommend and the price was quite reasonable compared with other options in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this hotel and would highly recommend it. The pool is lovely and the restaurants are great. Comfy bed, clean, efficient staff. I only wish it were possible to turn up the lights in the bathroom. Very difficult to apply makeup! Other than that, I highly recommend and the price was quite reasonable compared with other options in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r587230767-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587230767</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Great new property with some additional detail needed</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 nights and really enjoyed my stay.  The restaurants and bars in the hotel are top notch and nice break from Downtown.  I rarely eat at the hotels I stay at usually preferring to find gems outside the hotel.  This hotel was the exception.  I ate at the hotel 2 out of the 3 nights I was around for dinner.  The rooms are very nicely decorated with comfortable beds and linens.  My only complaint was the lack of counter space and tool hooks in the bathroom.  Since the bathroom was quite small it made it difficult to manage my hand towel, bath towel, and toiletries. Not a major issue but an annoyance. The location of the hotel is perfect as it is located adjacent to LA live.  I liked the hotel enough that I already booked for a return trip in August.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 nights and really enjoyed my stay.  The restaurants and bars in the hotel are top notch and nice break from Downtown.  I rarely eat at the hotels I stay at usually preferring to find gems outside the hotel.  This hotel was the exception.  I ate at the hotel 2 out of the 3 nights I was around for dinner.  The rooms are very nicely decorated with comfortable beds and linens.  My only complaint was the lack of counter space and tool hooks in the bathroom.  Since the bathroom was quite small it made it difficult to manage my hand towel, bath towel, and toiletries. Not a major issue but an annoyance. The location of the hotel is perfect as it is located adjacent to LA live.  I liked the hotel enough that I already booked for a return trip in August.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586726569-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -329,10 +909,10 @@
     <t>Great staff and room</t>
   </si>
   <si>
-    <t>Walking to the hotel, the hotel did not look so nice so I was a bit concerned, but don't let the outside fool you! Walking inside, I was amazingly surprised! The interior decor is modern and fabulous. We were greeted by upbeat and very accommodating concierge. The room we stayed in was lovely. My only complaint was that it took a long time for the hot water to come through, but that was minor. I will be coming back here if I come by downtown LA again! Thank you Hotel Figueroa! :)</t>
-  </si>
-  <si>
-    <t>heather s</t>
+    <t>Walking to the hotel, the hotel did not look so nice so I was a bit concerned, but don't let the outside fool you! Walking inside, I was amazingly surprised! The interior decor is modern and fabulous. We were greeted by upbeat and very accommodating concierge. The room we stayed in was lovely. My only complaint was that it took a long time for the hot water to come through, but that was minor. I will be coming back here if I come by downtown LA again! Thank you Hotel Figueroa! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Walking to the hotel, the hotel did not look so nice so I was a bit concerned, but don't let the outside fool you! Walking inside, I was amazingly surprised! The interior decor is modern and fabulous. We were greeted by upbeat and very accommodating concierge. The room we stayed in was lovely. My only complaint was that it took a long time for the hot water to come through, but that was minor. I will be coming back here if I come by downtown LA again! Thank you Hotel Figueroa! :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586259622-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -347,10 +927,10 @@
     <t>Lovely stay at the Hotel Figuerroa</t>
   </si>
   <si>
-    <t>Loved this property. It is unique, the decor is so fun and different. We loved our room, the employees were so helpful and kind. You are right next to LA Live and in the heart of the new downtown LA scene. We stayed four nights and plan to return later this year.</t>
-  </si>
-  <si>
-    <t>SaguaroSophie</t>
+    <t>Loved this property. It is unique, the decor is so fun and different. We loved our room, the employees were so helpful and kind. You are right next to LA Live and in the heart of the new downtown LA scene. We stayed four nights and plan to return later this year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved this property. It is unique, the decor is so fun and different. We loved our room, the employees were so helpful and kind. You are right next to LA Live and in the heart of the new downtown LA scene. We stayed four nights and plan to return later this year.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r586201971-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -362,10 +942,49 @@
     <t>Charming Hotel...Exceptional Staff</t>
   </si>
   <si>
-    <t>We really enjoyed our stay...  I would book a larger room next time, but our room was quiet and cozy and the bed was so comfy.  We loved the swanky restaurant and bars and the vibe throughout.  Entire staff was so friendly and welcoming... absolutely top notch. Cocktails at Veranda and breakfast at Breva were lovely.</t>
-  </si>
-  <si>
-    <t>Steven_theHB</t>
+    <t>We really enjoyed our stay...  I would book a larger room next time, but our room was quiet and cozy and the bed was so comfy.  We loved the swanky restaurant and bars and the vibe throughout.  Entire staff was so friendly and welcoming... absolutely top notch. Cocktails at Veranda and breakfast at Breva were lovely.MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay...  I would book a larger room next time, but our room was quiet and cozy and the bed was so comfy.  We loved the swanky restaurant and bars and the vibe throughout.  Entire staff was so friendly and welcoming... absolutely top notch. Cocktails at Veranda and breakfast at Breva were lovely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r585854998-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>585854998</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Nicely restored property.</t>
+  </si>
+  <si>
+    <t>The hotel renovation has been nicely done.  The rooms are well appointed, well taken care of and comfortable.  Views from the property are not that exciting, but that's a function of the location.  The staff were very friendly and the service was good.  Lobby bar has great drinks, although struggled to keep up with the demand the evening I was there (they did have an event that night).  Did not check out the pool deck, but looks like it would be a great place for a drink.  It's a little far from some parts of the financial district, so it may not be entirely convenient, depending on where you have business.  All in all, however, a great addition to the LA hotel sccene.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The hotel renovation has been nicely done.  The rooms are well appointed, well taken care of and comfortable.  Views from the property are not that exciting, but that's a function of the location.  The staff were very friendly and the service was good.  Lobby bar has great drinks, although struggled to keep up with the demand the evening I was there (they did have an event that night).  Did not check out the pool deck, but looks like it would be a great place for a drink.  It's a little far from some parts of the financial district, so it may not be entirely convenient, depending on where you have business.  All in all, however, a great addition to the LA hotel sccene.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r584839661-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>584839661</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>DTLA Gold</t>
+  </si>
+  <si>
+    <t>Typically one to stay closer to the beach, DTLA and Figueroa was central to the last 2 trips.  Property is great value, staff are amazing, slick renovations, comfy rooms/beds, plenty of nearby dining/bar options.  Rooms on the western side are large and really well done.  Lobby bar/restaurant is great as is the pool bar and even Ricks bar right out the back which kind of flys under the radar.  Definitely recommended and ill make it a definite stop on more business trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Typically one to stay closer to the beach, DTLA and Figueroa was central to the last 2 trips.  Property is great value, staff are amazing, slick renovations, comfy rooms/beds, plenty of nearby dining/bar options.  Rooms on the western side are large and really well done.  Lobby bar/restaurant is great as is the pool bar and even Ricks bar right out the back which kind of flys under the radar.  Definitely recommended and ill make it a definite stop on more business trips.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r582285445-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -380,13 +999,10 @@
     <t>I new gem in DTLA</t>
   </si>
   <si>
-    <t>I had the pleasure to stay at the Hotel Figueroa a few weekends ago and absolutely loved it!  Great location / good vibe / super comfortable rooms / AMAZING staff....its the total package.  I also had the opportunity to have dinner at Veranda (out by the pool).  WOW....it might have been the best meal I've had so far in 2018. Not to mention it was extremely reasonable for the party of 4 that we had.  I can recommend this property without hesitation.  You won't be disappointed when you visit.  Oh...and its a block from LA Live (where Staples Center is).  World class location....</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Marcy A</t>
+    <t>I had the pleasure to stay at the Hotel Figueroa a few weekends ago and absolutely loved it!  Great location / good vibe / super comfortable rooms / AMAZING staff....its the total package.  I also had the opportunity to have dinner at Veranda (out by the pool).  WOW....it might have been the best meal I've had so far in 2018. Not to mention it was extremely reasonable for the party of 4 that we had.  I can recommend this property without hesitation.  You won't be disappointed when you visit.  Oh...and its a block from LA Live (where Staples Center is).  World class location....MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the pleasure to stay at the Hotel Figueroa a few weekends ago and absolutely loved it!  Great location / good vibe / super comfortable rooms / AMAZING staff....its the total package.  I also had the opportunity to have dinner at Veranda (out by the pool).  WOW....it might have been the best meal I've had so far in 2018. Not to mention it was extremely reasonable for the party of 4 that we had.  I can recommend this property without hesitation.  You won't be disappointed when you visit.  Oh...and its a block from LA Live (where Staples Center is).  World class location....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r580277852-Hotel_Figueroa-Los_Angeles_California.html</t>
@@ -404,21 +1020,15 @@
     <t>The hotel was absolutely gorgeous, each restaurant had very different types of meals but all were delightful. The staff were warm and accommodating, will stay again when I am back in LA. The pool was really nice, and the artist in residency hallway let me get a good feel of LA.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded 4 days ago</t>
-  </si>
-  <si>
-    <t>Responded 4 days ago</t>
+    <t>Clay A, General Manager at Hotel Figueroa, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
   </si>
   <si>
     <t>The hotel was absolutely gorgeous, each restaurant had very different types of meals but all were delightful. The staff were warm and accommodating, will stay again when I am back in LA. The pool was really nice, and the artist in residency hallway let me get a good feel of LA.More</t>
   </si>
   <si>
-    <t>Danielle M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r579285497-Hotel_Figueroa-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +1045,42 @@
   </si>
   <si>
     <t>In addition to the central location, beautiful decor, delicious food, and comfortable rooms, I cannot say enough good about the incredible staff at Hotel Figueroa. Our every need was tended to by the personable staff. I would recommend to anyone, particularly for business travel and events.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r579142883-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579142883</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Excellent location, beautiful hotel</t>
+  </si>
+  <si>
+    <t>Walkable to LA Live and the heart of downtown LA, this historic hotel has recently undergone a tasteful and beautifully appointed renovation. The interior design is both comfy and luxurious—classic with a modern twist. The on-site restaurants are lovely and popular so make a reservation or order food (try the hamburger) off the menu from the bar, where the bartenders are creative and experienced mixologists. (Try the berry cobbler cocktail!) The many positives (including location, design, amenities, and complimentary water and snacks) outweigh the minor inconveniences, such as small rooms and $45 overnight parking. I am very happy with my choice to stay here and hope to come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walkable to LA Live and the heart of downtown LA, this historic hotel has recently undergone a tasteful and beautifully appointed renovation. The interior design is both comfy and luxurious—classic with a modern twist. The on-site restaurants are lovely and popular so make a reservation or order food (try the hamburger) off the menu from the bar, where the bartenders are creative and experienced mixologists. (Try the berry cobbler cocktail!) The many positives (including location, design, amenities, and complimentary water and snacks) outweigh the minor inconveniences, such as small rooms and $45 overnight parking. I am very happy with my choice to stay here and hope to come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d124956-r578674030-Hotel_Figueroa-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578674030</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Wonderful surprise!</t>
+  </si>
+  <si>
+    <t>This was the sweetest place! The staff is beyond welcoming and we all felt very cared for. I loved the gluten free snack and water in the evening. Complimentary snacks were awesome. Great walk ability to DTLA. The room price which is reasonable does not include room tax, city tax, county tax...those are extra. Also $49 to park your car overnight. The upside is the exquisite decor, restaurant and cleanliness. We loved our stay!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the sweetest place! The staff is beyond welcoming and we all felt very cared for. I loved the gluten free snack and water in the evening. Complimentary snacks were awesome. Great walk ability to DTLA. The room price which is reasonable does not include room tax, city tax, county tax...those are extra. Also $49 to park your car overnight. The upside is the exquisite decor, restaurant and cleanliness. We loved our stay!!!More</t>
   </si>
 </sst>
 </file>
@@ -939,47 +1585,43 @@
       <c r="A2" t="n">
         <v>17412</v>
       </c>
-      <c r="B2" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -990,125 +1632,125 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17412</v>
       </c>
-      <c r="B3" t="n">
-        <v>51418</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17412</v>
       </c>
-      <c r="B4" t="n">
-        <v>179254</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
@@ -1117,620 +1759,2712 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17412</v>
       </c>
-      <c r="B5" t="n">
-        <v>179255</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17412</v>
       </c>
-      <c r="B6" t="n">
-        <v>179256</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17412</v>
       </c>
-      <c r="B7" t="n">
-        <v>179257</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
         <v>4</v>
       </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17412</v>
       </c>
-      <c r="B8" t="n">
-        <v>179258</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17412</v>
       </c>
-      <c r="B9" t="n">
-        <v>179259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17412</v>
       </c>
-      <c r="B10" t="n">
-        <v>179260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17412</v>
       </c>
-      <c r="B11" t="n">
-        <v>179261</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17412</v>
       </c>
-      <c r="B12" t="n">
-        <v>33384</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="s">
-        <v>127</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17412</v>
       </c>
-      <c r="B13" t="n">
-        <v>6673</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>97</v>
+      </c>
+      <c r="X17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>176</v>
+      </c>
+      <c r="X22" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>225</v>
+      </c>
+      <c r="X27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>233</v>
+      </c>
+      <c r="X29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>233</v>
+      </c>
+      <c r="X31" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>233</v>
+      </c>
+      <c r="X32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>225</v>
+      </c>
+      <c r="X33" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>216</v>
+      </c>
+      <c r="X35" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>216</v>
+      </c>
+      <c r="X36" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>224</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>216</v>
+      </c>
+      <c r="X37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>224</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>216</v>
+      </c>
+      <c r="X38" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>224</v>
+      </c>
+      <c r="O39" t="s">
+        <v>175</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>216</v>
+      </c>
+      <c r="X39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>224</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>216</v>
+      </c>
+      <c r="X40" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>313</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>216</v>
+      </c>
+      <c r="X41" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s">
+        <v>319</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>216</v>
+      </c>
+      <c r="X42" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>216</v>
+      </c>
+      <c r="X43" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>154</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>332</v>
+      </c>
+      <c r="X44" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s">
+        <v>344</v>
+      </c>
+      <c r="L46" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>332</v>
+      </c>
+      <c r="X46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17412</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>332</v>
+      </c>
+      <c r="X47" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
